--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -16,7 +16,7 @@
     <t>ConceptScheme URI</t>
   </si>
   <si>
-    <t>hthttps://w3id.org/ontoforge/wedcc</t>
+    <t>https://w3id.org/ontoforge/wedcc#</t>
   </si>
   <si>
     <t>PREFIX</t>
@@ -283,7 +283,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -627,7 +627,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f>B1</f>
-        <v>hthttps://w3id.org/ontoforge/wedcc</v>
+        <v>https://w3id.org/ontoforge/wedcc#</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1333,11 +1333,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="C4"/>
-    <hyperlink r:id="rId3" ref="C5"/>
-    <hyperlink r:id="rId4" ref="B11"/>
+    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="B11"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>